--- a/biology/Médecine/Trouble_gastro-intestinal_fonctionnel/Trouble_gastro-intestinal_fonctionnel.xlsx
+++ b/biology/Médecine/Trouble_gastro-intestinal_fonctionnel/Trouble_gastro-intestinal_fonctionnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les troubles gastro-intestinaux fonctionnels, également connus sous le nom de troubles de l'interaction intestin-cerveau, comprennent un certain nombre de troubles idiopathiques distincts qui affectent différentes parties du tractus gastro-intestinal et impliquent une hypersensibilité viscérale et des troubles de la motilité[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles gastro-intestinaux fonctionnels, également connus sous le nom de troubles de l'interaction intestin-cerveau, comprennent un certain nombre de troubles idiopathiques distincts qui affectent différentes parties du tractus gastro-intestinal et impliquent une hypersensibilité viscérale et des troubles de la motilité. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Des termes tels que maladie colique fonctionnelle (ou trouble intestinal fonctionnel ) désignent en médecine un groupe de troubles gastro-intestinaux caractérisés par des affections abdominales chroniques sans cause structurelle ou biochimique pouvant expliquer les symptômes. D'autres troubles fonctionnels sont liés à d'autres aspects du processus de digestion. 
-Le processus d'examen par consensus des réunions et des publications organisées par la Fondation de Rome, appelé processus de Rome, a permis de définir les troubles gastro-intestinaux fonctionnels[2]. Ensuite, Rome I, Rome II, Rome III et Rome IV ont proposé un système et une terminologie de classification consensuels, comme recommandé par le Comité de coordination de Rome. Celles-ci incluent désormais des classifications appropriées pour les adultes, les enfants et les nouveau-nés / jeunes enfants. 
-La classification actuelle de Rome IV, publiée en 2016, est la suivante[1]: 
+Le processus d'examen par consensus des réunions et des publications organisées par la Fondation de Rome, appelé processus de Rome, a permis de définir les troubles gastro-intestinaux fonctionnels. Ensuite, Rome I, Rome II, Rome III et Rome IV ont proposé un système et une terminologie de classification consensuels, comme recommandé par le Comité de coordination de Rome. Celles-ci incluent désormais des classifications appropriées pour les adultes, les enfants et les nouveau-nés / jeunes enfants. 
+La classification actuelle de Rome IV, publiée en 2016, est la suivante: 
 A. Troubles de l'œsophage 
 A1.  Douleur thoracique fonctionnelle
 A2.  Brûlures d'estomac fonctionnelles
@@ -615,9 +629,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les troubles gastro-intestinaux fonctionnels sont très fréquents. Au niveau mondial, le syndrome de l'intestin irritable et la dyspepsie fonctionnelle à elle seule peuvent toucher 16 à 26% de la population[1],[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles gastro-intestinaux fonctionnels sont très fréquents. Au niveau mondial, le syndrome de l'intestin irritable et la dyspepsie fonctionnelle à elle seule peuvent toucher 16 à 26% de la population,. 
 </t>
         </is>
       </c>
@@ -646,9 +662,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe de nombreuses recherches sur les causes, le diagnostic et les traitements de ces troubles fonctionnels. Le régime alimentaire, le microbiote, la génétique, la fonction neuromusculaire et la réponse immunologique interagissent[1]. L'activation des mastocytes a été proposée comme l'un des facteurs déclenchants[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreuses recherches sur les causes, le diagnostic et les traitements de ces troubles fonctionnels. Le régime alimentaire, le microbiote, la génétique, la fonction neuromusculaire et la réponse immunologique interagissent. L'activation des mastocytes a été proposée comme l'un des facteurs déclenchants,.
 </t>
         </is>
       </c>
